--- a/Rule/FinancialRate.xlsx
+++ b/Rule/FinancialRate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeremy.andreas\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeremy.andreas\git\NAP-CF4W-UF-11END\Rule\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -582,8 +582,8 @@
   <dimension ref="A1:AA23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B25" sqref="B25"/>
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Rule/FinancialRate.xlsx
+++ b/Rule/FinancialRate.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeremy.andreas\git\NAP-CF4W-UF-11END\Rule\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teresa.octaviani\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="CreditRate" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="55">
   <si>
     <t>DATA OBJECTS</t>
   </si>
@@ -190,6 +190,12 @@
   </si>
   <si>
     <t>0002</t>
+  </si>
+  <si>
+    <t>AppCreditRate.DpNettPrcnt &lt;= @val</t>
+  </si>
+  <si>
+    <t>AppCreditRate.DpNettPrcnt &gt;= @val</t>
   </si>
 </sst>
 </file>
@@ -271,7 +277,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -298,6 +304,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -579,49 +586,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA23"/>
+  <dimension ref="A1:AC29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
       <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M29" sqref="M29"/>
+      <selection pane="topRight" activeCell="J29" sqref="J29:K29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="68.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="26.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.28515625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="27.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="8.7109375" style="1"/>
+    <col min="5" max="5" width="34.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.453125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.26953125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="21.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="27.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -629,7 +638,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -644,8 +653,10 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -660,14 +671,16 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>46</v>
       </c>
@@ -675,7 +688,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>48</v>
       </c>
@@ -683,12 +696,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
@@ -696,7 +709,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>5</v>
       </c>
@@ -725,10 +738,10 @@
         <v>5</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>6</v>
@@ -778,8 +791,14 @@
       <c r="AA13" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC13" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -789,12 +808,8 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
-      <c r="J14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
       <c r="L14" s="4" t="s">
         <v>8</v>
       </c>
@@ -843,8 +858,14 @@
       <c r="AA14" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC14" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>9</v>
       </c>
@@ -873,61 +894,67 @@
         <v>10</v>
       </c>
       <c r="J15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="M15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="N15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="O15" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="N15" s="3" t="s">
+      <c r="P15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="O15" s="3" t="s">
+      <c r="Q15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="P15" s="3" t="s">
+      <c r="R15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Q15" s="3" t="s">
+      <c r="S15" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="R15" s="3" t="s">
+      <c r="T15" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="S15" s="3" t="s">
+      <c r="U15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="T15" s="3" t="s">
+      <c r="V15" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="U15" s="3" t="s">
+      <c r="W15" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="V15" s="3" t="s">
+      <c r="X15" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="W15" s="3" t="s">
+      <c r="Y15" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="X15" s="3" t="s">
+      <c r="Z15" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Y15" s="3" t="s">
+      <c r="AA15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Z15" s="3" t="s">
+      <c r="AB15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AA15" s="3" t="s">
+      <c r="AC15" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>21</v>
       </c>
@@ -955,147 +982,159 @@
       <c r="I16" s="4">
         <v>12</v>
       </c>
-      <c r="J16" s="9">
+      <c r="J16" s="14">
+        <v>0</v>
+      </c>
+      <c r="K16" s="14">
+        <v>5</v>
+      </c>
+      <c r="L16" s="9">
         <v>7</v>
       </c>
-      <c r="K16" s="10">
-        <v>8</v>
-      </c>
-      <c r="L16" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="M16" s="5">
-        <v>6</v>
-      </c>
-      <c r="N16" s="5">
-        <v>15</v>
-      </c>
-      <c r="O16" s="8">
+      <c r="M16" s="10">
+        <v>8</v>
+      </c>
+      <c r="N16" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="O16" s="5">
+        <v>6</v>
+      </c>
+      <c r="P16" s="5">
+        <v>15</v>
+      </c>
+      <c r="Q16" s="8">
         <v>5000000</v>
       </c>
-      <c r="P16" s="5">
+      <c r="R16" s="5">
         <v>10</v>
       </c>
-      <c r="Q16" s="5">
-        <v>20</v>
-      </c>
-      <c r="R16" s="5">
+      <c r="S16" s="5">
+        <v>20</v>
+      </c>
+      <c r="T16" s="5">
         <v>40000000</v>
       </c>
-      <c r="S16" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="T16" s="11">
-        <v>0</v>
-      </c>
-      <c r="U16" s="11">
+      <c r="U16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="V16" s="11">
+        <v>0</v>
+      </c>
+      <c r="W16" s="11">
         <v>999999999</v>
       </c>
-      <c r="V16" s="7">
-        <v>20</v>
-      </c>
-      <c r="W16" s="7">
+      <c r="X16" s="7">
+        <v>20</v>
+      </c>
+      <c r="Y16" s="7">
         <v>70</v>
       </c>
-      <c r="X16" s="10">
+      <c r="Z16" s="10">
         <v>2</v>
       </c>
-      <c r="Y16" s="11" t="s">
+      <c r="AA16" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="Z16" s="11">
+      <c r="AB16" s="11">
         <v>3</v>
       </c>
-      <c r="AA16" s="11">
+      <c r="AC16" s="11">
         <v>3.2</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="9">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="4">
         <v>-1</v>
       </c>
       <c r="G17" s="6">
         <v>999999999999</v>
       </c>
-      <c r="H17" s="9">
-        <v>0</v>
-      </c>
-      <c r="I17" s="9">
-        <v>999</v>
+      <c r="H17" s="4">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4">
+        <v>12</v>
       </c>
       <c r="J17" s="9">
+        <v>5</v>
+      </c>
+      <c r="K17" s="9">
+        <v>100</v>
+      </c>
+      <c r="L17" s="9">
+        <v>7</v>
+      </c>
+      <c r="M17" s="10">
+        <v>8</v>
+      </c>
+      <c r="N17" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="O17" s="5">
+        <v>6</v>
+      </c>
+      <c r="P17" s="5">
+        <v>15</v>
+      </c>
+      <c r="Q17" s="8">
+        <v>5000000</v>
+      </c>
+      <c r="R17" s="5">
+        <v>10</v>
+      </c>
+      <c r="S17" s="5">
+        <v>20</v>
+      </c>
+      <c r="T17" s="5">
+        <v>40000000</v>
+      </c>
+      <c r="U17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="V17" s="11">
+        <v>0</v>
+      </c>
+      <c r="W17" s="11">
+        <v>999999999</v>
+      </c>
+      <c r="X17" s="7">
+        <v>20</v>
+      </c>
+      <c r="Y17" s="7">
+        <v>70</v>
+      </c>
+      <c r="Z17" s="10">
         <v>2</v>
       </c>
-      <c r="K17" s="11">
-        <v>13</v>
-      </c>
-      <c r="L17" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="M17" s="7">
-        <v>10</v>
-      </c>
-      <c r="N17" s="7">
-        <v>20</v>
-      </c>
-      <c r="O17" s="8">
-        <v>5000000</v>
-      </c>
-      <c r="P17" s="7">
-        <v>15</v>
-      </c>
-      <c r="Q17" s="7">
-        <v>20</v>
-      </c>
-      <c r="R17" s="5">
-        <v>20000000</v>
-      </c>
-      <c r="S17" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="T17" s="11">
-        <v>0</v>
-      </c>
-      <c r="U17" s="11">
-        <v>999999999</v>
-      </c>
-      <c r="V17" s="7">
-        <v>0</v>
-      </c>
-      <c r="W17" s="7">
-        <v>70</v>
-      </c>
-      <c r="X17" s="11">
+      <c r="AA17" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB17" s="11">
+        <v>3</v>
+      </c>
+      <c r="AC17" s="11">
         <v>3.2</v>
       </c>
-      <c r="Y17" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z17" s="11">
-        <v>3</v>
-      </c>
-      <c r="AA17" s="11">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>11</v>
@@ -1121,64 +1160,70 @@
       <c r="I18" s="9">
         <v>999</v>
       </c>
-      <c r="J18" s="9">
-        <v>1</v>
-      </c>
-      <c r="K18" s="11">
-        <v>1</v>
-      </c>
-      <c r="L18" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1</v>
-      </c>
-      <c r="N18" s="7">
-        <v>5</v>
-      </c>
-      <c r="O18" s="8">
-        <v>2000000</v>
+      <c r="J18" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="L18" s="9">
+        <v>2</v>
+      </c>
+      <c r="M18" s="11">
+        <v>13</v>
+      </c>
+      <c r="N18" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="O18" s="7">
+        <v>10</v>
       </c>
       <c r="P18" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="7">
-        <v>20</v>
-      </c>
-      <c r="R18" s="5">
-        <v>0</v>
-      </c>
-      <c r="S18" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="T18" s="11">
-        <v>0</v>
-      </c>
-      <c r="U18" s="11">
+        <v>20</v>
+      </c>
+      <c r="Q18" s="8">
+        <v>5000000</v>
+      </c>
+      <c r="R18" s="7">
+        <v>15</v>
+      </c>
+      <c r="S18" s="7">
+        <v>20</v>
+      </c>
+      <c r="T18" s="5">
+        <v>20000000</v>
+      </c>
+      <c r="U18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="V18" s="11">
+        <v>0</v>
+      </c>
+      <c r="W18" s="11">
         <v>999999999</v>
       </c>
-      <c r="V18" s="7">
-        <v>0</v>
-      </c>
-      <c r="W18" s="7">
+      <c r="X18" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="7">
         <v>70</v>
       </c>
-      <c r="X18" s="11">
+      <c r="Z18" s="11">
         <v>3.2</v>
       </c>
-      <c r="Y18" s="11" t="s">
+      <c r="AA18" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="Z18" s="11">
+      <c r="AB18" s="11">
         <v>3</v>
       </c>
-      <c r="AA18" s="11">
+      <c r="AC18" s="11">
         <v>1.8</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>11</v>
@@ -1204,228 +1249,246 @@
       <c r="I19" s="9">
         <v>999</v>
       </c>
-      <c r="J19" s="9">
-        <v>2</v>
-      </c>
-      <c r="K19" s="11">
-        <v>13</v>
-      </c>
-      <c r="L19" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="M19" s="7">
-        <v>10</v>
-      </c>
-      <c r="N19" s="7">
-        <v>20</v>
-      </c>
-      <c r="O19" s="8">
-        <v>5000000</v>
+      <c r="J19" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="L19" s="9">
+        <v>1</v>
+      </c>
+      <c r="M19" s="11">
+        <v>1</v>
+      </c>
+      <c r="N19" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="O19" s="7">
+        <v>1</v>
       </c>
       <c r="P19" s="7">
-        <v>15</v>
-      </c>
-      <c r="Q19" s="7">
-        <v>20</v>
-      </c>
-      <c r="R19" s="5">
-        <v>20000000</v>
-      </c>
-      <c r="S19" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="T19" s="11">
-        <v>0</v>
-      </c>
-      <c r="U19" s="11">
+        <v>5</v>
+      </c>
+      <c r="Q19" s="8">
+        <v>2000000</v>
+      </c>
+      <c r="R19" s="7">
+        <v>1</v>
+      </c>
+      <c r="S19" s="7">
+        <v>20</v>
+      </c>
+      <c r="T19" s="5">
+        <v>0</v>
+      </c>
+      <c r="U19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="V19" s="11">
+        <v>0</v>
+      </c>
+      <c r="W19" s="11">
         <v>999999999</v>
       </c>
-      <c r="V19" s="7">
-        <v>0</v>
-      </c>
-      <c r="W19" s="7">
+      <c r="X19" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="7">
         <v>70</v>
       </c>
-      <c r="X19" s="11">
+      <c r="Z19" s="11">
         <v>3.2</v>
       </c>
-      <c r="Y19" s="11" t="s">
+      <c r="AA19" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="Z19" s="11">
+      <c r="AB19" s="11">
         <v>3</v>
       </c>
-      <c r="AA19" s="11">
+      <c r="AC19" s="11">
         <v>1.8</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="4">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A20" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="9">
         <v>-1</v>
       </c>
       <c r="G20" s="6">
         <v>999999999999</v>
       </c>
-      <c r="H20" s="4">
-        <v>12</v>
-      </c>
-      <c r="I20" s="4">
-        <v>24</v>
-      </c>
-      <c r="J20" s="4">
-        <v>16</v>
-      </c>
-      <c r="K20" s="10">
-        <v>17</v>
-      </c>
-      <c r="L20" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="M20" s="5">
-        <v>15</v>
-      </c>
-      <c r="N20" s="5">
-        <v>22</v>
-      </c>
-      <c r="O20" s="8">
+      <c r="H20" s="9">
+        <v>0</v>
+      </c>
+      <c r="I20" s="9">
+        <v>999</v>
+      </c>
+      <c r="J20" s="14">
+        <v>0</v>
+      </c>
+      <c r="K20" s="14">
+        <v>5</v>
+      </c>
+      <c r="L20" s="9">
+        <v>2</v>
+      </c>
+      <c r="M20" s="11">
+        <v>13</v>
+      </c>
+      <c r="N20" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="O20" s="7">
+        <v>10</v>
+      </c>
+      <c r="P20" s="7">
+        <v>20</v>
+      </c>
+      <c r="Q20" s="8">
         <v>5000000</v>
       </c>
-      <c r="P20" s="5">
-        <v>19</v>
-      </c>
-      <c r="Q20" s="5">
-        <v>40</v>
-      </c>
-      <c r="R20" s="5">
-        <v>40000000</v>
-      </c>
-      <c r="S20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="T20" s="11">
-        <v>0</v>
-      </c>
-      <c r="U20" s="11">
+      <c r="R20" s="7">
+        <v>15</v>
+      </c>
+      <c r="S20" s="7">
+        <v>20</v>
+      </c>
+      <c r="T20" s="5">
+        <v>20000000</v>
+      </c>
+      <c r="U20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="V20" s="11">
+        <v>0</v>
+      </c>
+      <c r="W20" s="11">
         <v>999999999</v>
       </c>
-      <c r="V20" s="7">
-        <v>20</v>
-      </c>
-      <c r="W20" s="7">
+      <c r="X20" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="7">
         <v>70</v>
       </c>
-      <c r="X20" s="10">
-        <v>1.2</v>
-      </c>
-      <c r="Y20" s="11" t="s">
+      <c r="Z20" s="11">
+        <v>3.2</v>
+      </c>
+      <c r="AA20" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="Z20" s="11">
+      <c r="AB20" s="11">
         <v>3</v>
       </c>
-      <c r="AA20" s="11">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="4">
+      <c r="AC20" s="11">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A21" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="9">
         <v>-1</v>
       </c>
       <c r="G21" s="6">
         <v>999999999999</v>
       </c>
-      <c r="H21" s="4">
-        <v>24</v>
-      </c>
-      <c r="I21" s="4">
+      <c r="H21" s="9">
+        <v>0</v>
+      </c>
+      <c r="I21" s="9">
         <v>999</v>
       </c>
       <c r="J21" s="4">
-        <v>7</v>
-      </c>
-      <c r="K21" s="10">
-        <v>8</v>
-      </c>
-      <c r="L21" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="M21" s="5">
-        <v>6</v>
-      </c>
-      <c r="N21" s="5">
-        <v>15</v>
-      </c>
-      <c r="O21" s="8">
+        <v>5</v>
+      </c>
+      <c r="K21" s="4">
+        <v>100</v>
+      </c>
+      <c r="L21" s="9">
+        <v>2</v>
+      </c>
+      <c r="M21" s="11">
+        <v>13</v>
+      </c>
+      <c r="N21" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="O21" s="7">
+        <v>10</v>
+      </c>
+      <c r="P21" s="7">
+        <v>20</v>
+      </c>
+      <c r="Q21" s="8">
         <v>5000000</v>
       </c>
-      <c r="P21" s="5">
-        <v>10</v>
-      </c>
-      <c r="Q21" s="5">
-        <v>20</v>
-      </c>
-      <c r="R21" s="5">
-        <v>40000000</v>
-      </c>
-      <c r="S21" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="T21" s="11">
-        <v>0</v>
-      </c>
-      <c r="U21" s="11">
+      <c r="R21" s="7">
+        <v>15</v>
+      </c>
+      <c r="S21" s="7">
+        <v>20</v>
+      </c>
+      <c r="T21" s="5">
+        <v>20000000</v>
+      </c>
+      <c r="U21" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="V21" s="11">
+        <v>0</v>
+      </c>
+      <c r="W21" s="11">
         <v>999999999</v>
       </c>
-      <c r="V21" s="7">
-        <v>20</v>
-      </c>
-      <c r="W21" s="7">
+      <c r="X21" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="7">
         <v>70</v>
       </c>
-      <c r="X21" s="10">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="Y21" s="11" t="s">
+      <c r="Z21" s="11">
+        <v>3.2</v>
+      </c>
+      <c r="AA21" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="Z21" s="11">
+      <c r="AB21" s="11">
         <v>3</v>
       </c>
-      <c r="AA21" s="11">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AC21" s="11">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>11</v>
       </c>
@@ -1436,7 +1499,7 @@
         <v>11</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>11</v>
@@ -1448,67 +1511,73 @@
         <v>999999999999</v>
       </c>
       <c r="H22" s="4">
+        <v>12</v>
+      </c>
+      <c r="I22" s="4">
         <v>24</v>
       </c>
-      <c r="I22" s="4">
-        <v>999</v>
-      </c>
-      <c r="J22" s="4">
-        <v>9</v>
-      </c>
-      <c r="K22" s="10">
-        <v>11</v>
-      </c>
-      <c r="L22" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="M22" s="5">
-        <v>6</v>
-      </c>
-      <c r="N22" s="5">
-        <v>15</v>
-      </c>
-      <c r="O22" s="8">
+      <c r="J22" s="14">
+        <v>0</v>
+      </c>
+      <c r="K22" s="14">
+        <v>5</v>
+      </c>
+      <c r="L22" s="4">
+        <v>16</v>
+      </c>
+      <c r="M22" s="10">
+        <v>17</v>
+      </c>
+      <c r="N22" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="O22" s="5">
+        <v>15</v>
+      </c>
+      <c r="P22" s="5">
+        <v>22</v>
+      </c>
+      <c r="Q22" s="8">
         <v>5000000</v>
       </c>
-      <c r="P22" s="5">
-        <v>10</v>
-      </c>
-      <c r="Q22" s="5">
-        <v>20</v>
-      </c>
       <c r="R22" s="5">
+        <v>19</v>
+      </c>
+      <c r="S22" s="5">
+        <v>40</v>
+      </c>
+      <c r="T22" s="5">
         <v>40000000</v>
       </c>
-      <c r="S22" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="T22" s="11">
-        <v>0</v>
-      </c>
-      <c r="U22" s="11">
+      <c r="U22" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="V22" s="11">
+        <v>0</v>
+      </c>
+      <c r="W22" s="11">
         <v>999999999</v>
       </c>
-      <c r="V22" s="7">
-        <v>20</v>
-      </c>
-      <c r="W22" s="7">
+      <c r="X22" s="7">
+        <v>20</v>
+      </c>
+      <c r="Y22" s="7">
         <v>70</v>
       </c>
-      <c r="X22" s="10">
+      <c r="Z22" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="AA22" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB22" s="11">
+        <v>3</v>
+      </c>
+      <c r="AC22" s="11">
         <v>1.1000000000000001</v>
       </c>
-      <c r="Y22" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z22" s="11">
-        <v>3</v>
-      </c>
-      <c r="AA22" s="11">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>11</v>
       </c>
@@ -1531,63 +1600,603 @@
         <v>999999999999</v>
       </c>
       <c r="H23" s="4">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I23" s="4">
+        <v>24</v>
+      </c>
+      <c r="J23" s="4">
+        <v>5</v>
+      </c>
+      <c r="K23" s="4">
+        <v>100</v>
+      </c>
+      <c r="L23" s="4">
+        <v>16</v>
+      </c>
+      <c r="M23" s="10">
+        <v>17</v>
+      </c>
+      <c r="N23" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="O23" s="5">
+        <v>15</v>
+      </c>
+      <c r="P23" s="5">
+        <v>22</v>
+      </c>
+      <c r="Q23" s="8">
+        <v>5000000</v>
+      </c>
+      <c r="R23" s="5">
+        <v>19</v>
+      </c>
+      <c r="S23" s="5">
+        <v>40</v>
+      </c>
+      <c r="T23" s="5">
+        <v>40000000</v>
+      </c>
+      <c r="U23" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="V23" s="11">
+        <v>0</v>
+      </c>
+      <c r="W23" s="11">
+        <v>999999999</v>
+      </c>
+      <c r="X23" s="7">
+        <v>20</v>
+      </c>
+      <c r="Y23" s="7">
+        <v>70</v>
+      </c>
+      <c r="Z23" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="AA23" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB23" s="11">
+        <v>3</v>
+      </c>
+      <c r="AC23" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="4">
+        <v>-1</v>
+      </c>
+      <c r="G24" s="6">
+        <v>999999999999</v>
+      </c>
+      <c r="H24" s="4">
+        <v>24</v>
+      </c>
+      <c r="I24" s="4">
         <v>999</v>
       </c>
-      <c r="J23" s="9">
-        <v>8</v>
-      </c>
-      <c r="K23" s="10">
+      <c r="J24" s="14">
+        <v>0</v>
+      </c>
+      <c r="K24" s="14">
+        <v>5</v>
+      </c>
+      <c r="L24" s="4">
+        <v>7</v>
+      </c>
+      <c r="M24" s="10">
+        <v>8</v>
+      </c>
+      <c r="N24" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="O24" s="5">
+        <v>6</v>
+      </c>
+      <c r="P24" s="5">
+        <v>15</v>
+      </c>
+      <c r="Q24" s="8">
+        <v>5000000</v>
+      </c>
+      <c r="R24" s="5">
         <v>10</v>
       </c>
-      <c r="L23" s="10" t="s">
+      <c r="S24" s="5">
+        <v>20</v>
+      </c>
+      <c r="T24" s="5">
+        <v>40000000</v>
+      </c>
+      <c r="U24" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="V24" s="11">
+        <v>0</v>
+      </c>
+      <c r="W24" s="11">
+        <v>999999999</v>
+      </c>
+      <c r="X24" s="7">
+        <v>20</v>
+      </c>
+      <c r="Y24" s="7">
+        <v>70</v>
+      </c>
+      <c r="Z24" s="10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AA24" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB24" s="11">
+        <v>3</v>
+      </c>
+      <c r="AC24" s="11">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="4">
+        <v>-1</v>
+      </c>
+      <c r="G25" s="6">
+        <v>999999999999</v>
+      </c>
+      <c r="H25" s="4">
+        <v>24</v>
+      </c>
+      <c r="I25" s="4">
+        <v>999</v>
+      </c>
+      <c r="J25" s="4">
+        <v>5</v>
+      </c>
+      <c r="K25" s="4">
+        <v>100</v>
+      </c>
+      <c r="L25" s="4">
+        <v>7</v>
+      </c>
+      <c r="M25" s="10">
+        <v>8</v>
+      </c>
+      <c r="N25" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="O25" s="5">
+        <v>6</v>
+      </c>
+      <c r="P25" s="5">
+        <v>15</v>
+      </c>
+      <c r="Q25" s="8">
+        <v>5000000</v>
+      </c>
+      <c r="R25" s="5">
+        <v>10</v>
+      </c>
+      <c r="S25" s="5">
+        <v>20</v>
+      </c>
+      <c r="T25" s="5">
+        <v>40000000</v>
+      </c>
+      <c r="U25" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="V25" s="11">
+        <v>0</v>
+      </c>
+      <c r="W25" s="11">
+        <v>999999999</v>
+      </c>
+      <c r="X25" s="7">
+        <v>20</v>
+      </c>
+      <c r="Y25" s="7">
+        <v>70</v>
+      </c>
+      <c r="Z25" s="10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AA25" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB25" s="11">
+        <v>3</v>
+      </c>
+      <c r="AC25" s="11">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="4">
+        <v>-1</v>
+      </c>
+      <c r="G26" s="6">
+        <v>999999999999</v>
+      </c>
+      <c r="H26" s="4">
+        <v>24</v>
+      </c>
+      <c r="I26" s="4">
+        <v>999</v>
+      </c>
+      <c r="J26" s="14">
+        <v>0</v>
+      </c>
+      <c r="K26" s="14">
+        <v>5</v>
+      </c>
+      <c r="L26" s="4">
+        <v>9</v>
+      </c>
+      <c r="M26" s="10">
+        <v>11</v>
+      </c>
+      <c r="N26" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="M23" s="5">
-        <v>8</v>
-      </c>
-      <c r="N23" s="5">
-        <v>15</v>
-      </c>
-      <c r="O23" s="8">
+      <c r="O26" s="5">
+        <v>6</v>
+      </c>
+      <c r="P26" s="5">
+        <v>15</v>
+      </c>
+      <c r="Q26" s="8">
         <v>5000000</v>
       </c>
-      <c r="P23" s="5">
+      <c r="R26" s="5">
+        <v>10</v>
+      </c>
+      <c r="S26" s="5">
+        <v>20</v>
+      </c>
+      <c r="T26" s="5">
+        <v>40000000</v>
+      </c>
+      <c r="U26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="V26" s="11">
+        <v>0</v>
+      </c>
+      <c r="W26" s="11">
+        <v>999999999</v>
+      </c>
+      <c r="X26" s="7">
+        <v>20</v>
+      </c>
+      <c r="Y26" s="7">
+        <v>70</v>
+      </c>
+      <c r="Z26" s="10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AA26" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB26" s="11">
+        <v>3</v>
+      </c>
+      <c r="AC26" s="11">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="4">
+        <v>-1</v>
+      </c>
+      <c r="G27" s="6">
+        <v>999999999999</v>
+      </c>
+      <c r="H27" s="4">
+        <v>24</v>
+      </c>
+      <c r="I27" s="4">
+        <v>999</v>
+      </c>
+      <c r="J27" s="4">
+        <v>5</v>
+      </c>
+      <c r="K27" s="4">
+        <v>100</v>
+      </c>
+      <c r="L27" s="4">
+        <v>9</v>
+      </c>
+      <c r="M27" s="10">
+        <v>11</v>
+      </c>
+      <c r="N27" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="O27" s="5">
+        <v>6</v>
+      </c>
+      <c r="P27" s="5">
+        <v>15</v>
+      </c>
+      <c r="Q27" s="8">
+        <v>5000000</v>
+      </c>
+      <c r="R27" s="5">
+        <v>10</v>
+      </c>
+      <c r="S27" s="5">
+        <v>20</v>
+      </c>
+      <c r="T27" s="5">
+        <v>40000000</v>
+      </c>
+      <c r="U27" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="V27" s="11">
+        <v>0</v>
+      </c>
+      <c r="W27" s="11">
+        <v>999999999</v>
+      </c>
+      <c r="X27" s="7">
+        <v>20</v>
+      </c>
+      <c r="Y27" s="7">
+        <v>70</v>
+      </c>
+      <c r="Z27" s="10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AA27" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB27" s="11">
+        <v>3</v>
+      </c>
+      <c r="AC27" s="11">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="4">
+        <v>-1</v>
+      </c>
+      <c r="G28" s="6">
+        <v>999999999999</v>
+      </c>
+      <c r="H28" s="4">
+        <v>0</v>
+      </c>
+      <c r="I28" s="4">
+        <v>999</v>
+      </c>
+      <c r="J28" s="4">
+        <v>0</v>
+      </c>
+      <c r="K28" s="4">
+        <v>5</v>
+      </c>
+      <c r="L28" s="9">
+        <v>8</v>
+      </c>
+      <c r="M28" s="10">
+        <v>10</v>
+      </c>
+      <c r="N28" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="O28" s="5">
+        <v>8</v>
+      </c>
+      <c r="P28" s="5">
+        <v>15</v>
+      </c>
+      <c r="Q28" s="8">
+        <v>5000000</v>
+      </c>
+      <c r="R28" s="5">
         <v>12</v>
       </c>
-      <c r="Q23" s="5">
-        <v>20</v>
-      </c>
-      <c r="R23" s="5">
+      <c r="S28" s="5">
+        <v>20</v>
+      </c>
+      <c r="T28" s="5">
         <v>40000000</v>
       </c>
-      <c r="S23" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="T23" s="11">
-        <v>0</v>
-      </c>
-      <c r="U23" s="11">
+      <c r="U28" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="V28" s="11">
+        <v>0</v>
+      </c>
+      <c r="W28" s="11">
         <v>999999999</v>
       </c>
-      <c r="V23" s="7">
-        <v>20</v>
-      </c>
-      <c r="W23" s="7">
+      <c r="X28" s="7">
+        <v>20</v>
+      </c>
+      <c r="Y28" s="7">
         <v>70</v>
       </c>
-      <c r="X23" s="10">
+      <c r="Z28" s="10">
         <v>1</v>
       </c>
-      <c r="Y23" s="11" t="s">
+      <c r="AA28" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="Z23" s="11">
+      <c r="AB28" s="11">
         <v>3</v>
       </c>
-      <c r="AA23" s="11">
+      <c r="AC28" s="11">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="4">
+        <v>-1</v>
+      </c>
+      <c r="G29" s="6">
+        <v>999999999999</v>
+      </c>
+      <c r="H29" s="4">
+        <v>0</v>
+      </c>
+      <c r="I29" s="4">
+        <v>999</v>
+      </c>
+      <c r="J29" s="4">
+        <v>5</v>
+      </c>
+      <c r="K29" s="4">
+        <v>100</v>
+      </c>
+      <c r="L29" s="9">
+        <v>8</v>
+      </c>
+      <c r="M29" s="10">
+        <v>10</v>
+      </c>
+      <c r="N29" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="O29" s="5">
+        <v>8</v>
+      </c>
+      <c r="P29" s="5">
+        <v>15</v>
+      </c>
+      <c r="Q29" s="8">
+        <v>5000000</v>
+      </c>
+      <c r="R29" s="5">
+        <v>12</v>
+      </c>
+      <c r="S29" s="5">
+        <v>20</v>
+      </c>
+      <c r="T29" s="5">
+        <v>40000000</v>
+      </c>
+      <c r="U29" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="V29" s="11">
+        <v>0</v>
+      </c>
+      <c r="W29" s="11">
+        <v>999999999</v>
+      </c>
+      <c r="X29" s="7">
+        <v>20</v>
+      </c>
+      <c r="Y29" s="7">
+        <v>70</v>
+      </c>
+      <c r="Z29" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA29" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB29" s="11">
+        <v>3</v>
+      </c>
+      <c r="AC29" s="11">
         <v>1.3</v>
       </c>
     </row>

--- a/Rule/FinancialRate.xlsx
+++ b/Rule/FinancialRate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teresa.octaviani\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hendra\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="54">
   <si>
     <t>DATA OBJECTS</t>
   </si>
@@ -178,9 +178,6 @@
   </si>
   <si>
     <t>EXIT_WHEN_FOUND</t>
-  </si>
-  <si>
-    <t>LOCK</t>
   </si>
   <si>
     <t>USED</t>
@@ -589,8 +586,8 @@
   <dimension ref="A1:AC29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J29" sqref="J29:K29"/>
+      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -894,10 +891,10 @@
         <v>10</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>31</v>
@@ -959,10 +956,10 @@
         <v>21</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>22</v>
@@ -995,7 +992,7 @@
         <v>8</v>
       </c>
       <c r="N16" s="10" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="O16" s="5">
         <v>6</v>
@@ -1048,10 +1045,10 @@
         <v>21</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>22</v>
@@ -1172,7 +1169,7 @@
       <c r="M18" s="11">
         <v>13</v>
       </c>
-      <c r="N18" s="11" t="s">
+      <c r="N18" s="10" t="s">
         <v>15</v>
       </c>
       <c r="O18" s="7">
@@ -1261,7 +1258,7 @@
       <c r="M19" s="11">
         <v>1</v>
       </c>
-      <c r="N19" s="11" t="s">
+      <c r="N19" s="10" t="s">
         <v>15</v>
       </c>
       <c r="O19" s="7">
@@ -1350,8 +1347,8 @@
       <c r="M20" s="11">
         <v>13</v>
       </c>
-      <c r="N20" s="11" t="s">
-        <v>49</v>
+      <c r="N20" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="O20" s="7">
         <v>10</v>
@@ -1439,7 +1436,7 @@
       <c r="M21" s="11">
         <v>13</v>
       </c>
-      <c r="N21" s="11" t="s">
+      <c r="N21" s="10" t="s">
         <v>15</v>
       </c>
       <c r="O21" s="7">
@@ -1529,7 +1526,7 @@
         <v>17</v>
       </c>
       <c r="N22" s="10" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="O22" s="5">
         <v>15</v>
@@ -1707,7 +1704,7 @@
         <v>8</v>
       </c>
       <c r="N24" s="10" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="O24" s="5">
         <v>6</v>
@@ -1855,7 +1852,7 @@
         <v>11</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>11</v>
@@ -1885,7 +1882,7 @@
         <v>11</v>
       </c>
       <c r="N26" s="10" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="O26" s="5">
         <v>6</v>
@@ -1944,7 +1941,7 @@
         <v>11</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>11</v>
@@ -2063,7 +2060,7 @@
         <v>10</v>
       </c>
       <c r="N28" s="10" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="O28" s="5">
         <v>8</v>
@@ -2152,7 +2149,7 @@
         <v>10</v>
       </c>
       <c r="N29" s="10" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="O29" s="5">
         <v>8</v>
